--- a/Source/8 Practical Concurrent and Parallel Programming/Week5/results/jve_1.1-1.2.xlsx
+++ b/Source/8 Practical Concurrent and Parallel Programming/Week5/results/jve_1.1-1.2.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t>Runtime</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t># of tasks</t>
   </si>
@@ -77,11 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +112,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -154,7 +177,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>cached shared</c:v>
+            <c:v>stealing local</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -182,10 +205,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$6:$B$13</c:f>
+              <c:f>'Ark1'!$A$3:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -209,39 +232,591 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$C$6:$C$13</c:f>
+              <c:f>'Ark1'!$E$3:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10216.700000000001</c:v>
+                  <c:v>11480.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6218.5</c:v>
+                  <c:v>7222.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4528.8999999999996</c:v>
+                  <c:v>5282.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3683.9</c:v>
+                  <c:v>4318.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4001.6</c:v>
+                  <c:v>4524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3359.1</c:v>
+                  <c:v>4099.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2931</c:v>
+                  <c:v>3435.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2727.9</c:v>
+                  <c:v>2961.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3570.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3457.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3195.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3405.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3189.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2971.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2785.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3105.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3032.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2921.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2862.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3057</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2949.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2825.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2720.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2867.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2797.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2775.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2917.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2846.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2758.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2686.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2845.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2786.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2744.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2730.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2836.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2794.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2724.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2672.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2789.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2773.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2725.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2705.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2783.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2752.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2694.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2658.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2767.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2759.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2690.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2676.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2713</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2673.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2662.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2743.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2694.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2688.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2706.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2716.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2674.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2649.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2701.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2698.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2669.7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2679</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2680.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2657.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2653.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2681.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2664</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2710.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2675.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2678.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2663.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2658.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2639.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2685.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2669.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2675.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2673.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2650.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2670.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2647.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2669.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2665.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2675.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2642.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2674.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2644.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2655.2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2664.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,10 +855,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$6:$B$13</c:f>
+              <c:f>'Ark1'!$A$3:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -307,39 +882,591 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$G$6:$G$13</c:f>
+              <c:f>'Ark1'!$D$3:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>10222.5</c:v>
+                  <c:v>11499.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6443</c:v>
+                  <c:v>7205.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4619.8</c:v>
+                  <c:v>5302.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3844.6</c:v>
+                  <c:v>4682.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3711.7</c:v>
+                  <c:v>4574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3285</c:v>
+                  <c:v>4089.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2854.7</c:v>
+                  <c:v>3472.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2557.4</c:v>
+                  <c:v>2980.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3602.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3463.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3398.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3220.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2990.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3127.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3052.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2951.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2869.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3100.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2979.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2845.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2741.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2823.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2789.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2942.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2865.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2807.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2707.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2873.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2815.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2773.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2752.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2852</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2810.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2743.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2693.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2812.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2784.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2741.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2733.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2770.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2720.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2685.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2737.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2714.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2727.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2748.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2728.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2702.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2755.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2713.1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2732.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2722.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2712.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2690.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2674.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2722.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2707.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2688.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2722.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2693.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2678.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2671.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2699.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2684.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2671.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2706.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2694.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2685.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2677.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2658.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2706.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2698.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2739.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2707.1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2697.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2700.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2670.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2696.3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2690.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2660.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2695.9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2675.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2690.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2670.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2660.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2693.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2669.7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2675.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,10 +1505,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$6:$B$13</c:f>
+              <c:f>'Ark1'!$A$3:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -405,39 +1532,591 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$E$6:$E$13</c:f>
+              <c:f>'Ark1'!$C$3:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12311.3</c:v>
+                  <c:v>11418.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7576.4</c:v>
+                  <c:v>7185.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5306.4</c:v>
+                  <c:v>5255.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4452.8999999999996</c:v>
+                  <c:v>4046.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4644.2</c:v>
+                  <c:v>4661.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3917.4</c:v>
+                  <c:v>3979.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3403.5</c:v>
+                  <c:v>3323.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3204.6</c:v>
+                  <c:v>3092.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3470.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3353.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3165.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3275.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3179.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3090.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2906.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3001.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2984.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2904.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2885.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2954.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2891.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2781.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2775.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2838.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2790.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2834.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2793.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2729.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2733.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2770.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2774.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2785.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2775.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2750.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2707.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2742.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2732.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2715.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2734.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2745.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2724</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2702.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2704.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2687.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2702</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2717.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2686.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2676.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2703.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2707</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2692.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2695.1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2677.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2665.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2689.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2686.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2680.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2672.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2691.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2685.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2676.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2671.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2702.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2686.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2674.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2669.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2682.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2679.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2669.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2668.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2679.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2672</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2680.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2671.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2654.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2670.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2673.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2662.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2660.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2681.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2675.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2665.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2662.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2658.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2695.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2668.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2669.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2667.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2685.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2661.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,7 +2127,7 @@
           <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>stealing local</c:v>
+            <c:v>cached shared</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -482,10 +2161,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Ark1'!$B$6:$B$13</c:f>
+              <c:f>'Ark1'!$A$3:$A$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -509,39 +2188,591 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ark1'!$I$6:$I$13</c:f>
+              <c:f>'Ark1'!$B$3:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>11878.7</c:v>
+                  <c:v>11561.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7388.6</c:v>
+                  <c:v>7255.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5400.4</c:v>
+                  <c:v>5249.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4552.2</c:v>
+                  <c:v>4154.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4589.7</c:v>
+                  <c:v>4740.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4046.1</c:v>
+                  <c:v>4019.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3423.8</c:v>
+                  <c:v>3373.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2979.8</c:v>
+                  <c:v>3141.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3509.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3420.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3347</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3316.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3116.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2907.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2834.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2900.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2859.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2796.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2782.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2729.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2676.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2612.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2612.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2603.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2591.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2589.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2604.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2591.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2593.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2567.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2567.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2682.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2588.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2590.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2577.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2554</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2531.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2511.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2506.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2495.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2493.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2492.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2478.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2465.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2456.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2436</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2437.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2426.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2427.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2442.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2421.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2410.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2416.1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2430.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2419.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2419</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2407.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2406.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2373.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2374.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2355.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2351.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2343.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2342.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2345.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2337.1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2325.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2333.9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2326.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2322.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2310.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2319.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2312.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2305.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2299.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2292.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2290.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2300.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2302.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2287.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2282.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2281.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2278.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2280.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2283.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2291.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2311.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2285.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2290.9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2293.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2301.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2281.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2278.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2269.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2264.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2262.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,16 +2789,86 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425551824"/>
-        <c:axId val="425547472"/>
+        <c:axId val="-764739056"/>
+        <c:axId val="-764739600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425551824"/>
+        <c:axId val="-764739056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -605,7 +2906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425547472"/>
+        <c:crossAx val="-764739600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -613,7 +2914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425547472"/>
+        <c:axId val="-764739600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,6 +2934,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -664,7 +3021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425551824"/>
+        <c:crossAx val="-764739056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,7 +3034,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1292,16 +3649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1586,207 +3943,1749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I13"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11561.6</v>
+      </c>
+      <c r="C3">
+        <v>11418.7</v>
+      </c>
+      <c r="D3">
+        <v>11499.6</v>
+      </c>
+      <c r="E3">
+        <v>11480.5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7255.1</v>
+      </c>
+      <c r="C4">
+        <v>7185.2</v>
+      </c>
+      <c r="D4">
+        <v>7205.5</v>
+      </c>
+      <c r="E4">
+        <v>7222.2</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5249.6</v>
+      </c>
+      <c r="C5">
+        <v>5255.9</v>
+      </c>
+      <c r="D5">
+        <v>5302.6</v>
+      </c>
+      <c r="E5">
+        <v>5282.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4154.2</v>
+      </c>
+      <c r="C6">
+        <v>4046.8</v>
+      </c>
+      <c r="D6">
+        <v>4682.5</v>
+      </c>
+      <c r="E6">
+        <v>4318.3999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10216.700000000001</v>
-      </c>
-      <c r="E6">
-        <v>12311.3</v>
-      </c>
-      <c r="G6">
-        <v>10222.5</v>
-      </c>
-      <c r="I6">
-        <v>11878.7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>2</v>
+        <v>4740.7</v>
       </c>
       <c r="C7">
-        <v>6218.5</v>
+        <v>4661.6000000000004</v>
+      </c>
+      <c r="D7">
+        <v>4574</v>
       </c>
       <c r="E7">
-        <v>7576.4</v>
-      </c>
-      <c r="G7">
-        <v>6443</v>
-      </c>
-      <c r="I7">
-        <v>7388.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8">
-        <v>3</v>
+        <v>4019.4</v>
       </c>
       <c r="C8">
-        <v>4528.8999999999996</v>
+        <v>3979.1</v>
+      </c>
+      <c r="D8">
+        <v>4089.1</v>
       </c>
       <c r="E8">
-        <v>5306.4</v>
-      </c>
-      <c r="G8">
-        <v>4619.8</v>
-      </c>
-      <c r="I8">
-        <v>5400.4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+        <v>4099.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9">
-        <v>4</v>
+        <v>3373.1</v>
       </c>
       <c r="C9">
-        <v>3683.9</v>
+        <v>3323.1</v>
+      </c>
+      <c r="D9">
+        <v>3472.3</v>
       </c>
       <c r="E9">
-        <v>4452.8999999999996</v>
-      </c>
-      <c r="G9">
-        <v>3844.6</v>
-      </c>
-      <c r="I9">
-        <v>4552.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3435.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10">
-        <v>5</v>
+        <v>3141.9</v>
       </c>
       <c r="C10">
-        <v>4001.6</v>
+        <v>3092.1</v>
+      </c>
+      <c r="D10">
+        <v>2980.2</v>
       </c>
       <c r="E10">
-        <v>4644.2</v>
-      </c>
-      <c r="G10">
-        <v>3711.7</v>
-      </c>
-      <c r="I10">
-        <v>4589.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+        <v>2961.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11">
-        <v>6</v>
+        <v>3509.8</v>
       </c>
       <c r="C11">
-        <v>3359.1</v>
+        <v>3470.1</v>
+      </c>
+      <c r="D11">
+        <v>3602.4</v>
       </c>
       <c r="E11">
-        <v>3917.4</v>
-      </c>
-      <c r="G11">
-        <v>3285</v>
-      </c>
-      <c r="I11">
-        <v>4046.1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3570.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12">
-        <v>7</v>
+        <v>3420.7</v>
       </c>
       <c r="C12">
-        <v>2931</v>
+        <v>3353.8</v>
+      </c>
+      <c r="D12">
+        <v>3463.2</v>
       </c>
       <c r="E12">
-        <v>3403.5</v>
-      </c>
-      <c r="G12">
-        <v>2854.7</v>
-      </c>
-      <c r="I12">
-        <v>3423.8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+        <v>3457.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13">
-        <v>8</v>
+        <v>3347</v>
       </c>
       <c r="C13">
-        <v>2727.9</v>
+        <v>3165.8</v>
+      </c>
+      <c r="D13">
+        <v>3223</v>
       </c>
       <c r="E13">
-        <v>3204.6</v>
-      </c>
-      <c r="G13">
-        <v>2557.4</v>
-      </c>
-      <c r="I13">
-        <v>2979.8</v>
+        <v>3195.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3104</v>
+      </c>
+      <c r="C14">
+        <v>3275.5</v>
+      </c>
+      <c r="D14">
+        <v>3068</v>
+      </c>
+      <c r="E14">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3316.1</v>
+      </c>
+      <c r="C15">
+        <v>3244</v>
+      </c>
+      <c r="D15">
+        <v>3398.6</v>
+      </c>
+      <c r="E15">
+        <v>3405.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3116.3</v>
+      </c>
+      <c r="C16">
+        <v>3179.4</v>
+      </c>
+      <c r="D16">
+        <v>3220.3</v>
+      </c>
+      <c r="E16">
+        <v>3189.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2907.6</v>
+      </c>
+      <c r="C17">
+        <v>3090.3</v>
+      </c>
+      <c r="D17">
+        <v>2990.1</v>
+      </c>
+      <c r="E17">
+        <v>2971.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2834.5</v>
+      </c>
+      <c r="C18">
+        <v>2906.7</v>
+      </c>
+      <c r="D18">
+        <v>2801</v>
+      </c>
+      <c r="E18">
+        <v>2785.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2900.5</v>
+      </c>
+      <c r="C19">
+        <v>3001.2</v>
+      </c>
+      <c r="D19">
+        <v>3127.4</v>
+      </c>
+      <c r="E19">
+        <v>3105.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2859.9</v>
+      </c>
+      <c r="C20">
+        <v>2984.3</v>
+      </c>
+      <c r="D20">
+        <v>3052.8</v>
+      </c>
+      <c r="E20">
+        <v>3032.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2796.3</v>
+      </c>
+      <c r="C21">
+        <v>2904.1</v>
+      </c>
+      <c r="D21">
+        <v>2951.7</v>
+      </c>
+      <c r="E21">
+        <v>2921.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2782.9</v>
+      </c>
+      <c r="C22">
+        <v>2885.1</v>
+      </c>
+      <c r="D22">
+        <v>2869.3</v>
+      </c>
+      <c r="E22">
+        <v>2862.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2729.9</v>
+      </c>
+      <c r="C23">
+        <v>2954.5</v>
+      </c>
+      <c r="D23">
+        <v>3100.3</v>
+      </c>
+      <c r="E23">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2676.4</v>
+      </c>
+      <c r="C24">
+        <v>2891.6</v>
+      </c>
+      <c r="D24">
+        <v>2979.3</v>
+      </c>
+      <c r="E24">
+        <v>2949.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2612.9</v>
+      </c>
+      <c r="C25">
+        <v>2781.5</v>
+      </c>
+      <c r="D25">
+        <v>2845.4</v>
+      </c>
+      <c r="E25">
+        <v>2825.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2612.9</v>
+      </c>
+      <c r="C26">
+        <v>2775.3</v>
+      </c>
+      <c r="D26">
+        <v>2741.6</v>
+      </c>
+      <c r="E26">
+        <v>2720.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2603.5</v>
+      </c>
+      <c r="C27">
+        <v>2845</v>
+      </c>
+      <c r="D27">
+        <v>2953</v>
+      </c>
+      <c r="E27">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2591.1999999999998</v>
+      </c>
+      <c r="C28">
+        <v>2838.2</v>
+      </c>
+      <c r="D28">
+        <v>2896</v>
+      </c>
+      <c r="E28">
+        <v>2867.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2589.1999999999998</v>
+      </c>
+      <c r="C29">
+        <v>2790.5</v>
+      </c>
+      <c r="D29">
+        <v>2823.2</v>
+      </c>
+      <c r="E29">
+        <v>2797.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2604.4</v>
+      </c>
+      <c r="C30">
+        <v>2798</v>
+      </c>
+      <c r="D30">
+        <v>2789.8</v>
+      </c>
+      <c r="E30">
+        <v>2775.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2591.5</v>
+      </c>
+      <c r="C31">
+        <v>2834.9</v>
+      </c>
+      <c r="D31">
+        <v>2942.3</v>
+      </c>
+      <c r="E31">
+        <v>2917.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2593.6999999999998</v>
+      </c>
+      <c r="C32">
+        <v>2793.2</v>
+      </c>
+      <c r="D32">
+        <v>2865.1</v>
+      </c>
+      <c r="E32">
+        <v>2846.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2567.5</v>
+      </c>
+      <c r="C33">
+        <v>2729.1</v>
+      </c>
+      <c r="D33">
+        <v>2807.9</v>
+      </c>
+      <c r="E33">
+        <v>2758.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2567.1</v>
+      </c>
+      <c r="C34">
+        <v>2733.3</v>
+      </c>
+      <c r="D34">
+        <v>2707.6</v>
+      </c>
+      <c r="E34">
+        <v>2686.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2682.9</v>
+      </c>
+      <c r="C35">
+        <v>2770.6</v>
+      </c>
+      <c r="D35">
+        <v>2873.9</v>
+      </c>
+      <c r="E35">
+        <v>2845.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2588.6</v>
+      </c>
+      <c r="C36">
+        <v>2774.7</v>
+      </c>
+      <c r="D36">
+        <v>2815.4</v>
+      </c>
+      <c r="E36">
+        <v>2786.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2590.6999999999998</v>
+      </c>
+      <c r="C37">
+        <v>2766</v>
+      </c>
+      <c r="D37">
+        <v>2773.2</v>
+      </c>
+      <c r="E37">
+        <v>2744.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2577.6</v>
+      </c>
+      <c r="C38">
+        <v>2785.6</v>
+      </c>
+      <c r="D38">
+        <v>2752.2</v>
+      </c>
+      <c r="E38">
+        <v>2730.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2554</v>
+      </c>
+      <c r="C39">
+        <v>2775.3</v>
+      </c>
+      <c r="D39">
+        <v>2852</v>
+      </c>
+      <c r="E39">
+        <v>2836.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2531.9</v>
+      </c>
+      <c r="C40">
+        <v>2750.8</v>
+      </c>
+      <c r="D40">
+        <v>2810.2</v>
+      </c>
+      <c r="E40">
+        <v>2794.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2511.6999999999998</v>
+      </c>
+      <c r="C41">
+        <v>2707.1</v>
+      </c>
+      <c r="D41">
+        <v>2743.1</v>
+      </c>
+      <c r="E41">
+        <v>2724.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2506.9</v>
+      </c>
+      <c r="C42">
+        <v>2737</v>
+      </c>
+      <c r="D42">
+        <v>2693.8</v>
+      </c>
+      <c r="E42">
+        <v>2672.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2495.9</v>
+      </c>
+      <c r="C43">
+        <v>2742.4</v>
+      </c>
+      <c r="D43">
+        <v>2812.5</v>
+      </c>
+      <c r="E43">
+        <v>2789.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2493.6</v>
+      </c>
+      <c r="C44">
+        <v>2732.6</v>
+      </c>
+      <c r="D44">
+        <v>2784.1</v>
+      </c>
+      <c r="E44">
+        <v>2773.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2492.9</v>
+      </c>
+      <c r="C45">
+        <v>2715.3</v>
+      </c>
+      <c r="D45">
+        <v>2741.2</v>
+      </c>
+      <c r="E45">
+        <v>2725.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2478.9</v>
+      </c>
+      <c r="C46">
+        <v>2734.5</v>
+      </c>
+      <c r="D46">
+        <v>2733.6</v>
+      </c>
+      <c r="E46">
+        <v>2705.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2465.1</v>
+      </c>
+      <c r="C47">
+        <v>2745.4</v>
+      </c>
+      <c r="D47">
+        <v>2797</v>
+      </c>
+      <c r="E47">
+        <v>2783.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2456.1999999999998</v>
+      </c>
+      <c r="C48">
+        <v>2724</v>
+      </c>
+      <c r="D48">
+        <v>2770.3</v>
+      </c>
+      <c r="E48">
+        <v>2752.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2436</v>
+      </c>
+      <c r="C49">
+        <v>2689</v>
+      </c>
+      <c r="D49">
+        <v>2720.3</v>
+      </c>
+      <c r="E49">
+        <v>2694.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2440</v>
+      </c>
+      <c r="C50">
+        <v>2702.8</v>
+      </c>
+      <c r="D50">
+        <v>2685.7</v>
+      </c>
+      <c r="E50">
+        <v>2658.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2437.8000000000002</v>
+      </c>
+      <c r="C51">
+        <v>2718</v>
+      </c>
+      <c r="D51">
+        <v>2785</v>
+      </c>
+      <c r="E51">
+        <v>2767.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2426.4</v>
+      </c>
+      <c r="C52">
+        <v>2704.1</v>
+      </c>
+      <c r="D52">
+        <v>2737.5</v>
+      </c>
+      <c r="E52">
+        <v>2759.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2427.6</v>
+      </c>
+      <c r="C53">
+        <v>2687.5</v>
+      </c>
+      <c r="D53">
+        <v>2714.4</v>
+      </c>
+      <c r="E53">
+        <v>2690.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2442.4</v>
+      </c>
+      <c r="C54">
+        <v>2702</v>
+      </c>
+      <c r="D54">
+        <v>2727.6</v>
+      </c>
+      <c r="E54">
+        <v>2676.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2421.5</v>
+      </c>
+      <c r="C55">
+        <v>2717.8</v>
+      </c>
+      <c r="D55">
+        <v>2748.4</v>
+      </c>
+      <c r="E55">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2410.8000000000002</v>
+      </c>
+      <c r="C56">
+        <v>2686.9</v>
+      </c>
+      <c r="D56">
+        <v>2728.9</v>
+      </c>
+      <c r="E56">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2416.1</v>
+      </c>
+      <c r="C57">
+        <v>2676.3</v>
+      </c>
+      <c r="D57">
+        <v>2702.5</v>
+      </c>
+      <c r="E57">
+        <v>2673.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2430.1</v>
+      </c>
+      <c r="C58">
+        <v>2703.4</v>
+      </c>
+      <c r="D58">
+        <v>2691</v>
+      </c>
+      <c r="E58">
+        <v>2662.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2419.6999999999998</v>
+      </c>
+      <c r="C59">
+        <v>2707</v>
+      </c>
+      <c r="D59">
+        <v>2755.4</v>
+      </c>
+      <c r="E59">
+        <v>2743.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2419</v>
+      </c>
+      <c r="C60">
+        <v>2692.2</v>
+      </c>
+      <c r="D60">
+        <v>2713.1</v>
+      </c>
+      <c r="E60">
+        <v>2694.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2407.3000000000002</v>
+      </c>
+      <c r="C61">
+        <v>2695.1</v>
+      </c>
+      <c r="D61">
+        <v>2709.5</v>
+      </c>
+      <c r="E61">
+        <v>2688.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2406.4</v>
+      </c>
+      <c r="C62">
+        <v>2696</v>
+      </c>
+      <c r="D62">
+        <v>2732.5</v>
+      </c>
+      <c r="E62">
+        <v>2706.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2373.5</v>
+      </c>
+      <c r="C63">
+        <v>2701</v>
+      </c>
+      <c r="D63">
+        <v>2722.3</v>
+      </c>
+      <c r="E63">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2374.6999999999998</v>
+      </c>
+      <c r="C64">
+        <v>2677.5</v>
+      </c>
+      <c r="D64">
+        <v>2712.1</v>
+      </c>
+      <c r="E64">
+        <v>2716.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2361</v>
+      </c>
+      <c r="C65">
+        <v>2665.3</v>
+      </c>
+      <c r="D65">
+        <v>2690.8</v>
+      </c>
+      <c r="E65">
+        <v>2674.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2355.3000000000002</v>
+      </c>
+      <c r="C66">
+        <v>2689.7</v>
+      </c>
+      <c r="D66">
+        <v>2674.6</v>
+      </c>
+      <c r="E66">
+        <v>2649.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2351.9</v>
+      </c>
+      <c r="C67">
+        <v>2686.4</v>
+      </c>
+      <c r="D67">
+        <v>2722.4</v>
+      </c>
+      <c r="E67">
+        <v>2701.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2343.8000000000002</v>
+      </c>
+      <c r="C68">
+        <v>2680.1</v>
+      </c>
+      <c r="D68">
+        <v>2707.3</v>
+      </c>
+      <c r="E68">
+        <v>2698.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2342.6</v>
+      </c>
+      <c r="C69">
+        <v>2672.4</v>
+      </c>
+      <c r="D69">
+        <v>2688.9</v>
+      </c>
+      <c r="E69">
+        <v>2669.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2345.5</v>
+      </c>
+      <c r="C70">
+        <v>2691.7</v>
+      </c>
+      <c r="D70">
+        <v>2722.5</v>
+      </c>
+      <c r="E70">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2337.1</v>
+      </c>
+      <c r="C71">
+        <v>2685.6</v>
+      </c>
+      <c r="D71">
+        <v>2693.5</v>
+      </c>
+      <c r="E71">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2335</v>
+      </c>
+      <c r="C72">
+        <v>2676.5</v>
+      </c>
+      <c r="D72">
+        <v>2701</v>
+      </c>
+      <c r="E72">
+        <v>2680.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2325.1</v>
+      </c>
+      <c r="C73">
+        <v>2671.7</v>
+      </c>
+      <c r="D73">
+        <v>2678.6</v>
+      </c>
+      <c r="E73">
+        <v>2657.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2333.9</v>
+      </c>
+      <c r="C74">
+        <v>2702.6</v>
+      </c>
+      <c r="D74">
+        <v>2671.5</v>
+      </c>
+      <c r="E74">
+        <v>2653.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2326.9</v>
+      </c>
+      <c r="C75">
+        <v>2686.2</v>
+      </c>
+      <c r="D75">
+        <v>2699.5</v>
+      </c>
+      <c r="E75">
+        <v>2681.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2322.1999999999998</v>
+      </c>
+      <c r="C76">
+        <v>2674.9</v>
+      </c>
+      <c r="D76">
+        <v>2684.7</v>
+      </c>
+      <c r="E76">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2310.4</v>
+      </c>
+      <c r="C77">
+        <v>2669.7</v>
+      </c>
+      <c r="D77">
+        <v>2671.7</v>
+      </c>
+      <c r="E77">
+        <v>2710.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2319.8000000000002</v>
+      </c>
+      <c r="C78">
+        <v>2682.5</v>
+      </c>
+      <c r="D78">
+        <v>2706.1</v>
+      </c>
+      <c r="E78">
+        <v>2675.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2312.6</v>
+      </c>
+      <c r="C79">
+        <v>2679.1</v>
+      </c>
+      <c r="D79">
+        <v>2694.5</v>
+      </c>
+      <c r="E79">
+        <v>2678.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2305.1999999999998</v>
+      </c>
+      <c r="C80">
+        <v>2669.8</v>
+      </c>
+      <c r="D80">
+        <v>2685.8</v>
+      </c>
+      <c r="E80">
+        <v>2663.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2299.6</v>
+      </c>
+      <c r="C81">
+        <v>2668.2</v>
+      </c>
+      <c r="D81">
+        <v>2677.3</v>
+      </c>
+      <c r="E81">
+        <v>2658.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2292.4</v>
+      </c>
+      <c r="C82">
+        <v>2679.4</v>
+      </c>
+      <c r="D82">
+        <v>2658.8</v>
+      </c>
+      <c r="E82">
+        <v>2639.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2290.4</v>
+      </c>
+      <c r="C83">
+        <v>2672</v>
+      </c>
+      <c r="D83">
+        <v>2706.3</v>
+      </c>
+      <c r="E83">
+        <v>2685.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>2300.9</v>
+      </c>
+      <c r="C84">
+        <v>2680.4</v>
+      </c>
+      <c r="D84">
+        <v>2698.1</v>
+      </c>
+      <c r="E84">
+        <v>2669.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2302.5</v>
+      </c>
+      <c r="C85">
+        <v>2671.9</v>
+      </c>
+      <c r="D85">
+        <v>2739.4</v>
+      </c>
+      <c r="E85">
+        <v>2675.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>2287.6999999999998</v>
+      </c>
+      <c r="C86">
+        <v>2654.3</v>
+      </c>
+      <c r="D86">
+        <v>2707.1</v>
+      </c>
+      <c r="E86">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2282.9</v>
+      </c>
+      <c r="C87">
+        <v>2670.8</v>
+      </c>
+      <c r="D87">
+        <v>2697.9</v>
+      </c>
+      <c r="E87">
+        <v>2673.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>2281.9</v>
+      </c>
+      <c r="C88">
+        <v>2673.6</v>
+      </c>
+      <c r="D88">
+        <v>2700.7</v>
+      </c>
+      <c r="E88">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2278.4</v>
+      </c>
+      <c r="C89">
+        <v>2662.9</v>
+      </c>
+      <c r="D89">
+        <v>2670.1</v>
+      </c>
+      <c r="E89">
+        <v>2650.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>2280.6999999999998</v>
+      </c>
+      <c r="C90">
+        <v>2660.7</v>
+      </c>
+      <c r="D90">
+        <v>2660</v>
+      </c>
+      <c r="E90">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>2283.1</v>
+      </c>
+      <c r="C91">
+        <v>2681.8</v>
+      </c>
+      <c r="D91">
+        <v>2696.3</v>
+      </c>
+      <c r="E91">
+        <v>2670.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>2291.8000000000002</v>
+      </c>
+      <c r="C92">
+        <v>2675.5</v>
+      </c>
+      <c r="D92">
+        <v>2690.4</v>
+      </c>
+      <c r="E92">
+        <v>2647.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2311.3000000000002</v>
+      </c>
+      <c r="C93">
+        <v>2665.3</v>
+      </c>
+      <c r="D93">
+        <v>2660.5</v>
+      </c>
+      <c r="E93">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2285.1999999999998</v>
+      </c>
+      <c r="C94">
+        <v>2662.7</v>
+      </c>
+      <c r="D94">
+        <v>2695.9</v>
+      </c>
+      <c r="E94">
+        <v>2669.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2290.9</v>
+      </c>
+      <c r="C95">
+        <v>2658.8</v>
+      </c>
+      <c r="D95">
+        <v>2675.9</v>
+      </c>
+      <c r="E95">
+        <v>2665.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2293.4</v>
+      </c>
+      <c r="C96">
+        <v>2695.4</v>
+      </c>
+      <c r="D96">
+        <v>2690.1</v>
+      </c>
+      <c r="E96">
+        <v>2675.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2301.1999999999998</v>
+      </c>
+      <c r="C97">
+        <v>2668.1</v>
+      </c>
+      <c r="D97">
+        <v>2670.3</v>
+      </c>
+      <c r="E97">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>2281.1</v>
+      </c>
+      <c r="C98">
+        <v>2669</v>
+      </c>
+      <c r="D98">
+        <v>2660.4</v>
+      </c>
+      <c r="E98">
+        <v>2642.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2278.4</v>
+      </c>
+      <c r="C99">
+        <v>2669.7</v>
+      </c>
+      <c r="D99">
+        <v>2693.2</v>
+      </c>
+      <c r="E99">
+        <v>2674.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>2269.5</v>
+      </c>
+      <c r="C100">
+        <v>2667.3</v>
+      </c>
+      <c r="D100">
+        <v>2672</v>
+      </c>
+      <c r="E100">
+        <v>2644.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2264.3000000000002</v>
+      </c>
+      <c r="C101">
+        <v>2685.6</v>
+      </c>
+      <c r="D101">
+        <v>2669.7</v>
+      </c>
+      <c r="E101">
+        <v>2655.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2262.1</v>
+      </c>
+      <c r="C102">
+        <v>2661.1</v>
+      </c>
+      <c r="D102">
+        <v>2675.7</v>
+      </c>
+      <c r="E102">
+        <v>2664.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
